--- a/models/code/criterionVar/Criterionx/groupFits.xlsx
+++ b/models/code/criterionVar/Criterionx/groupFits.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="11100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Mix" sheetId="1" r:id="rId1"/>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +482,50 @@
       </c>
       <c r="N2">
         <v>1.43777307480544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>24627.072095124098</v>
+      </c>
+      <c r="B3">
+        <v>49363.956369118903</v>
+      </c>
+      <c r="C3">
+        <v>2.44486657453829</v>
+      </c>
+      <c r="D3">
+        <v>-0.36127034952050402</v>
+      </c>
+      <c r="E3">
+        <v>1.77663568874928</v>
+      </c>
+      <c r="F3">
+        <v>0.37264006325904803</v>
+      </c>
+      <c r="G3">
+        <v>1.03119952879032E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.71474450535666E-9</v>
+      </c>
+      <c r="I3">
+        <v>1.8603230253199701</v>
+      </c>
+      <c r="J3">
+        <v>0.91899203771031601</v>
+      </c>
+      <c r="K3">
+        <v>0.77041355827914604</v>
+      </c>
+      <c r="L3">
+        <v>0.29906330890683402</v>
+      </c>
+      <c r="M3">
+        <v>0.15010002652398</v>
+      </c>
+      <c r="N3">
+        <v>0.466315016249021</v>
       </c>
     </row>
   </sheetData>
@@ -491,10 +535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,6 +613,41 @@
         <v>0.25129183644657499</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>24220.065429607199</v>
+      </c>
+      <c r="B3">
+        <v>48522.489993367497</v>
+      </c>
+      <c r="C3">
+        <v>1.43246798012197</v>
+      </c>
+      <c r="D3">
+        <v>1.5629401805530001E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.36917863423953</v>
+      </c>
+      <c r="F3">
+        <v>3.4695306525569E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.0941175348444401</v>
+      </c>
+      <c r="H3">
+        <v>0.83970364714720702</v>
+      </c>
+      <c r="I3">
+        <v>1.54370707751657</v>
+      </c>
+      <c r="J3">
+        <v>0.13340000129436899</v>
+      </c>
+      <c r="K3">
+        <v>1.74294693779328</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/models/code/criterionVar/Criterionx/groupFits.xlsx
+++ b/models/code/criterionVar/Criterionx/groupFits.xlsx
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,6 +526,50 @@
       </c>
       <c r="N3">
         <v>0.466315016249021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>24234.357945590498</v>
+      </c>
+      <c r="B4">
+        <v>48578.528070051601</v>
+      </c>
+      <c r="C4">
+        <v>3.35867647899344</v>
+      </c>
+      <c r="D4">
+        <v>-0.344498447559212</v>
+      </c>
+      <c r="E4">
+        <v>3.18849660060713</v>
+      </c>
+      <c r="F4">
+        <v>-0.21015160812386099</v>
+      </c>
+      <c r="G4">
+        <v>1.5352996087272901E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.8676674496031799E-6</v>
+      </c>
+      <c r="I4">
+        <v>3.0432444103588701</v>
+      </c>
+      <c r="J4">
+        <v>1.0230727603482099</v>
+      </c>
+      <c r="K4">
+        <v>0.37419982745527902</v>
+      </c>
+      <c r="L4">
+        <v>0.19329683035527601</v>
+      </c>
+      <c r="M4">
+        <v>0.13340033827530701</v>
+      </c>
+      <c r="N4">
+        <v>2.80941521960834</v>
       </c>
     </row>
   </sheetData>
@@ -535,10 +579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,6 +692,41 @@
         <v>1.74294693779328</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30980.275289499401</v>
+      </c>
+      <c r="B4">
+        <v>62042.909713151799</v>
+      </c>
+      <c r="C4">
+        <v>1.2398124217650499</v>
+      </c>
+      <c r="D4">
+        <v>3.9111816632282003E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.68947964153049</v>
+      </c>
+      <c r="F4">
+        <v>0.36206375224019</v>
+      </c>
+      <c r="G4">
+        <v>0.45730628479278002</v>
+      </c>
+      <c r="H4">
+        <v>0.46442225994384501</v>
+      </c>
+      <c r="I4">
+        <v>1.1183313512667099</v>
+      </c>
+      <c r="J4">
+        <v>0.85070000523613698</v>
+      </c>
+      <c r="K4">
+        <v>0.363294489318432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/models/code/criterionVar/Criterionx/groupFits.xlsx
+++ b/models/code/criterionVar/Criterionx/groupFits.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="11100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mix" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>LL</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Pruned Participants</t>
   </si>
 </sst>
 </file>
@@ -85,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,9 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,6 +583,68 @@
         <v>2.80941521960834</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16768.637183340001</v>
+      </c>
+      <c r="B6">
+        <v>33643.927855850401</v>
+      </c>
+      <c r="C6">
+        <v>2.3681169412975498</v>
+      </c>
+      <c r="D6">
+        <v>3.1821712870057903E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.2640314759722502</v>
+      </c>
+      <c r="F6">
+        <v>-0.18770923510708301</v>
+      </c>
+      <c r="G6">
+        <v>3.93386872454954E-4</v>
+      </c>
+      <c r="H6">
+        <v>1.49933143514339E-2</v>
+      </c>
+      <c r="I6">
+        <v>2.1310528384039999</v>
+      </c>
+      <c r="J6">
+        <v>0.96215534643701595</v>
+      </c>
+      <c r="K6">
+        <v>0.56935486160591997</v>
+      </c>
+      <c r="L6">
+        <v>0.55176189363170502</v>
+      </c>
+      <c r="M6">
+        <v>0.16680001007292999</v>
+      </c>
+      <c r="N6">
+        <v>0.752632464327746</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -579,15 +652,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>54256.084295238303</v>
       </c>
@@ -657,7 +730,7 @@
         <v>0.25129183644657499</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24220.065429607199</v>
       </c>
@@ -692,7 +765,7 @@
         <v>1.74294693779328</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30980.275289499401</v>
       </c>
@@ -725,6 +798,57 @@
       </c>
       <c r="K4">
         <v>0.363294489318432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>17864.454532459102</v>
+      </c>
+      <c r="B6">
+        <v>35808.899181795903</v>
+      </c>
+      <c r="C6">
+        <v>0.91209601376568505</v>
+      </c>
+      <c r="D6">
+        <v>8.5263426331192493E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.1515299519332798</v>
+      </c>
+      <c r="F6">
+        <v>-0.79571100715481802</v>
+      </c>
+      <c r="G6">
+        <v>1.9596465494559601</v>
+      </c>
+      <c r="H6">
+        <v>1.01328325622843</v>
+      </c>
+      <c r="I6">
+        <v>1.81136868657114</v>
+      </c>
+      <c r="J6">
+        <v>0.16680000473672801</v>
+      </c>
+      <c r="K6">
+        <v>2.2982104797751499</v>
       </c>
     </row>
   </sheetData>

--- a/models/code/criterionVar/Criterionx/groupFits.xlsx
+++ b/models/code/criterionVar/Criterionx/groupFits.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="11100" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16725" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Mix" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +645,94 @@
         <v>0.752632464327746</v>
       </c>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25407.294767783998</v>
+      </c>
+      <c r="B7">
+        <v>50921.243024738302</v>
+      </c>
+      <c r="C7">
+        <v>2.8481542798030102</v>
+      </c>
+      <c r="D7">
+        <v>-2.1456130861643402E-3</v>
+      </c>
+      <c r="E7">
+        <v>3.0449411611117898</v>
+      </c>
+      <c r="F7">
+        <v>-5.9347709033486201E-4</v>
+      </c>
+      <c r="G7">
+        <v>1.37083179388561E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.7523330350945499E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.5827938831575601</v>
+      </c>
+      <c r="J7">
+        <v>1.37636969257252</v>
+      </c>
+      <c r="K7">
+        <v>0.53153711445798002</v>
+      </c>
+      <c r="L7">
+        <v>0.55957907482013203</v>
+      </c>
+      <c r="M7">
+        <v>1.6700002437178899E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.18336697194636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12704.991302479</v>
+      </c>
+      <c r="B8">
+        <v>25515.620089727901</v>
+      </c>
+      <c r="C8">
+        <v>2.6604749466414002</v>
+      </c>
+      <c r="D8">
+        <v>-2.7833118585753802E-3</v>
+      </c>
+      <c r="E8">
+        <v>2.6355004374362498</v>
+      </c>
+      <c r="F8">
+        <v>1.2307569401619299E-2</v>
+      </c>
+      <c r="G8">
+        <v>7.2504124725386102E-3</v>
+      </c>
+      <c r="H8">
+        <v>2.41637765593459E-3</v>
+      </c>
+      <c r="I8">
+        <v>2.4595685060864301</v>
+      </c>
+      <c r="J8">
+        <v>1.3843859672882599</v>
+      </c>
+      <c r="K8">
+        <v>0.57530656722347095</v>
+      </c>
+      <c r="L8">
+        <v>0.61887395687995705</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2.74082775257352E-5</v>
+      </c>
+      <c r="N8">
+        <v>1.2116137146980599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -652,10 +740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,6 +939,76 @@
         <v>2.2982104797751499</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>23810.334830759999</v>
+      </c>
+      <c r="B7">
+        <v>47700.659778397698</v>
+      </c>
+      <c r="C7">
+        <v>1.8581938519516501</v>
+      </c>
+      <c r="D7">
+        <v>1.09097621350335E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.5631309781263201</v>
+      </c>
+      <c r="F7">
+        <v>0.69289979756507702</v>
+      </c>
+      <c r="G7">
+        <v>1.1299878145219999</v>
+      </c>
+      <c r="H7">
+        <v>2.0861571160376599E-3</v>
+      </c>
+      <c r="I7">
+        <v>1.46244802337094</v>
+      </c>
+      <c r="J7">
+        <v>0.62409911007868701</v>
+      </c>
+      <c r="K7">
+        <v>1.87993837822989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13784.9478595788</v>
+      </c>
+      <c r="B8">
+        <v>27649.123832735</v>
+      </c>
+      <c r="C8">
+        <v>1.8581938519516501</v>
+      </c>
+      <c r="D8">
+        <v>1.09097621350335E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.5631309781263201</v>
+      </c>
+      <c r="F8">
+        <v>0.69289979756507702</v>
+      </c>
+      <c r="G8">
+        <v>1.1299878145219999</v>
+      </c>
+      <c r="H8">
+        <v>2.0861571160376599E-3</v>
+      </c>
+      <c r="I8">
+        <v>1.46244802337094</v>
+      </c>
+      <c r="J8">
+        <v>0.62409911007868701</v>
+      </c>
+      <c r="K8">
+        <v>1.87993837822989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
